--- a/data/types.xlsx
+++ b/data/types.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11700" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="255" windowWidth="18195" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ΜΠΑΛΚΟΝΟΠΟΡΤΕΣ" sheetId="1" r:id="rId1"/>
+    <sheet name="ΜΠΑΛΚΟΝΟΠΟΡΤΕΣ" sheetId="6" r:id="rId1"/>
     <sheet name="ΠΑΡΑΘΥΡΑ" sheetId="2" r:id="rId2"/>
     <sheet name="ΣΕΙΡΩΜΕΝΑ" sheetId="3" r:id="rId3"/>
     <sheet name="ΚΕΝΤΡΙΚΕΣ ΕΙΣΟΔΟΙ" sheetId="4" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="126">
   <si>
     <t>ΤΥΠΟΙ</t>
   </si>
@@ -523,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -591,8 +591,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,814 +901,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="45.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="G2" s="14">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="17">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="14">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>0</v>
-      </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="17">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="17">
-        <v>4</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="17">
-        <v>4</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="17">
-        <v>4</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="17">
-        <v>2</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="17">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="17">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="17">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="17">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="17">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="17">
-        <v>6</v>
-      </c>
-      <c r="D16" s="13">
-        <v>2</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="17">
-        <v>6</v>
-      </c>
-      <c r="D17" s="13">
-        <v>2</v>
-      </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="17">
-        <v>7</v>
-      </c>
-      <c r="D18" s="13">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="17">
-        <v>8</v>
-      </c>
-      <c r="D19" s="13">
-        <v>3</v>
-      </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="17">
-        <v>9</v>
-      </c>
-      <c r="D20" s="13">
-        <v>3</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14">
-        <v>0</v>
-      </c>
-      <c r="J20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="31"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1711,18 +909,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="24"/>
-    <col min="4" max="4" width="10.42578125" style="24" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="25.42578125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -1749,26 +944,15 @@
       <c r="J1" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="17">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="14">
         <v>0</v>
       </c>
@@ -1781,13 +965,14 @@
       <c r="J2" s="15">
         <v>0</v>
       </c>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>41</v>
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="17">
         <v>1</v>
@@ -1813,16 +998,16 @@
       <c r="J3" s="15">
         <v>0</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>42</v>
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="17">
         <v>1</v>
@@ -1848,22 +1033,22 @@
       <c r="J4" s="15">
         <v>0</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>49</v>
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C5" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="14">
         <v>0</v>
@@ -1883,424 +1068,1213 @@
       <c r="J5" s="15">
         <v>0</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>50</v>
+      <c r="A6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="17">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="17">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="17">
+        <v>4</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="17">
+        <v>2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="17">
+        <v>6</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="17">
+        <v>7</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="17">
+        <v>8</v>
+      </c>
+      <c r="D19" s="13">
         <v>3</v>
       </c>
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="17">
+        <v>9</v>
+      </c>
+      <c r="D20" s="13">
+        <v>3</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="17">
+        <v>4</v>
+      </c>
       <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="17">
+        <v>4</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="17">
+        <v>4</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="13">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="17">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="17">
+        <v>2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="17">
+        <v>2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>2</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="17">
+        <v>6</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="17">
+        <v>6</v>
+      </c>
+      <c r="D17" s="13">
+        <v>2</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="17">
+        <v>7</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="17">
+        <v>8</v>
+      </c>
+      <c r="D19" s="13">
         <v>3</v>
       </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="17">
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="17">
+        <v>9</v>
+      </c>
+      <c r="D20" s="13">
         <v>3</v>
       </c>
-      <c r="D7" s="13">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="17">
-        <v>3</v>
-      </c>
-      <c r="D8" s="13">
-        <v>3</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="17">
-        <v>3</v>
-      </c>
-      <c r="D9" s="13">
-        <v>3</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="17">
-        <v>3</v>
-      </c>
-      <c r="D10" s="13">
-        <v>3</v>
-      </c>
-      <c r="E10" s="14">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="17">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15">
-        <v>0</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="17">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="14">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="17">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
-        <v>0</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="17">
-        <v>15</v>
-      </c>
-      <c r="D15" s="13">
-        <v>4</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
-        <v>0</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="17">
-        <v>15</v>
-      </c>
-      <c r="D16" s="13">
-        <v>4</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
-        <v>0</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="17">
-        <v>15</v>
-      </c>
-      <c r="D17" s="13">
-        <v>4</v>
-      </c>
-      <c r="E17" s="14">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
         <v>0</v>
       </c>
     </row>
@@ -2381,7 +2355,7 @@
       <c r="A3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="17">
@@ -2940,13 +2914,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" style="24" customWidth="1"/>
     <col min="2" max="2" width="22.140625" style="24" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="24"/>
     <col min="4" max="4" width="10.42578125" style="24" customWidth="1"/>
@@ -3008,7 +2982,7 @@
       <c r="A3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="17">

--- a/data/types.xlsx
+++ b/data/types.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="255" windowWidth="18195" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="255" windowWidth="18195" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ΜΠΑΛΚΟΝΟΠΟΡΤΕΣ" sheetId="6" r:id="rId1"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
@@ -1598,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -2914,7 +2914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
